--- a/assets/modality_list.xlsx
+++ b/assets/modality_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Test Type</t>
   </si>
@@ -51,16 +51,37 @@
     <t>Testname</t>
   </si>
   <si>
-    <t>allergy</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
     <t>totalige</t>
   </si>
   <si>
     <t>complete homegram</t>
+  </si>
+  <si>
+    <t>VITAMINS</t>
+  </si>
+  <si>
+    <t>BONE</t>
+  </si>
+  <si>
+    <t>CHEST</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>blood test</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>11mins</t>
+  </si>
+  <si>
+    <t>FEVER</t>
   </si>
 </sst>
 </file>
@@ -392,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,13 +448,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -447,13 +468,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -463,6 +484,40 @@
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/assets/modality_list.xlsx
+++ b/assets/modality_list.xlsx
@@ -75,13 +75,13 @@
     <t>10mins</t>
   </si>
   <si>
-    <t>ffff</t>
-  </si>
-  <si>
     <t>11mins</t>
   </si>
   <si>
     <t>FEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> homegram</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,16 +505,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>100</v>

--- a/assets/modality_list.xlsx
+++ b/assets/modality_list.xlsx
@@ -81,7 +81,7 @@
     <t>FEVER</t>
   </si>
   <si>
-    <t xml:space="preserve"> homegram</t>
+    <t xml:space="preserve">blood </t>
   </si>
 </sst>
 </file>

--- a/assets/modality_list.xlsx
+++ b/assets/modality_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Test Type</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>FEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood </t>
   </si>
 </sst>
 </file>
@@ -511,7 +508,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
